--- a/biology/Botanique/Glynis_V._Cron/Glynis_V._Cron.xlsx
+++ b/biology/Botanique/Glynis_V._Cron/Glynis_V._Cron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glynis V. Cron est une botaniste et une taxinomiste sud-africaine, née en 1962, spécialiste des plantes du genre Cineraria de la famille des Asteraceae. Elle est chercheuse à l'Université du Witwatersrand à Johannesbourg, au département des Sciences animales, végétales et environnementales (School of Animal, Plant and Environmental Sciences)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glynis V. Cron est une botaniste et une taxinomiste sud-africaine, née en 1962, spécialiste des plantes du genre Cineraria de la famille des Asteraceae. Elle est chercheuse à l'Université du Witwatersrand à Johannesbourg, au département des Sciences animales, végétales et environnementales (School of Animal, Plant and Environmental Sciences).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Avec Petrus J. Robbertse et Paul L.D. Vincent. 1993. « The anatomy of the cypselae of species of Cineraria L. (Asteraceae—Senecioneae) and its taxonomic significance », dans Botanical Journal of the Linnean Society, 1993, vol. 112, n° 4, p. 319–334 Aperçu en ligne.
 Avec Kevin Balkwill : « Cineraria Lyratiformis (Senecioneae, Asteraceae), a new name for Cineraria lyrata », dans South African Journal of Botany, 1999, vol. 65, n° 4, p. 287.
@@ -548,9 +562,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cineraria lyratiformis Cron a été nommée en son honneur en 1999[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cineraria lyratiformis Cron a été nommée en son honneur en 1999.
 </t>
         </is>
       </c>
